--- a/biology/Zoologie/Geocrinia/Geocrinia.xlsx
+++ b/biology/Zoologie/Geocrinia/Geocrinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geocrinia est un genre d'amphibiens de la famille des Myobatrachidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geocrinia est un genre d'amphibiens de la famille des Myobatrachidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sept espèces de ce genre se rencontrent dans le sud-est et le sud-ouest de l'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sept espèces de ce genre se rencontrent dans le sud-est et le sud-ouest de l'Australie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces grenouilles ont d'abord été classées dans le genre Crinia. Les études ont montré cependant des différences notables entre ces deux genres. D'une part les espèces du genre Geocrinia ont un corps légèrement plus robuste et une peau plus lisse sur le ventre que celles du genre Crinia mais, et c'est le plus important, elles ne pondent pas dans l'eau. C'est ainsi que quelques espèces de Geocrinia passent l'intégralité de leur développement larvaire dans l'œuf tandis que d'autres éclosent quand les précipitations sont suffisantes pour achever leur développement dans l'eau. 
 Cinq des sept espèces de Geocrinia vivent en Australie occidentale tandis que les deux autres se trouvent dans le sud-est de l'Australie.
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (11 juin 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (11 juin 2017) :
 Geocrinia alba Wardell-Johnson &amp; Roberts, 1989
 Geocrinia laevis (Günther, 1864)
 Geocrinia leai (Fletcher, 1898)
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Blake, 1973 : Taxonomy and relationships of myobatrachine frogs (Leptodactylidae): a numerical approach. Australian Journal of Zoology, vol. 21, p. 119-149.</t>
         </is>
@@ -642,7 +662,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amphibiens d'Australie</t>
         </is>
